--- a/analysis/thalamus/figures_tables/edss_regressions/EDSS_and_main_mri_features_MS.xlsx
+++ b/analysis/thalamus/figures_tables/edss_regressions/EDSS_and_main_mri_features_MS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0817668658988079</v>
+        <v>-0.08176686589880805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04761386150693754</v>
+        <v>0.04761386150693755</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1759800785249794</v>
+        <v>-0.1759800785249795</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01244634672736361</v>
+        <v>0.01244634672736346</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08876744200463506</v>
+        <v>0.0887674420046345</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.1183565893395134</v>
+        <v>0.1141295682916729</v>
       </c>
       <c r="I2" t="n">
         <v>0.2175062196280921</v>
@@ -520,19 +520,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03340124363834631</v>
+        <v>-0.03340124363834585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04574463619383676</v>
+        <v>0.04574463619383672</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1218933583923484</v>
+        <v>-0.1218933583923478</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05509087111565573</v>
+        <v>0.0550908711156561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4586032238264918</v>
+        <v>0.4586032238264975</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4586032238264918</v>
+        <v>0.4586032238264975</v>
       </c>
       <c r="I3" t="n">
         <v>0.2133910070657227</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1049378613598699</v>
+        <v>-0.10493786135987</v>
       </c>
       <c r="C4" t="n">
         <v>0.05071287585737947</v>
@@ -562,10 +562,10 @@
         <v>-0.2033743844666532</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.006501338253086617</v>
+        <v>-0.0065013382530867</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03672553741252717</v>
+        <v>0.03672553741252704</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.05876085986004348</v>
+        <v>0.05508830611879055</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2200663402191798</v>
+        <v>0.2200663402191799</v>
       </c>
     </row>
     <row r="5">
@@ -589,7 +589,7 @@
         <v>-0.2202909734200428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04449322805749143</v>
+        <v>0.04449322805749147</v>
       </c>
       <c r="D5" t="n">
         <v>-0.3120001430893827</v>
@@ -598,7 +598,7 @@
         <v>-0.1285818037507028</v>
       </c>
       <c r="F5" t="n">
-        <v>3.147700748351011e-06</v>
+        <v>3.147700748351092e-06</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.259080299340404e-05</v>
+        <v>1.416465336757992e-05</v>
       </c>
       <c r="I5" t="n">
         <v>0.2497451168737915</v>
@@ -622,16 +622,16 @@
         <v>-0.2920278014406167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04530321532955645</v>
+        <v>0.04530321532955647</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3844675475160855</v>
+        <v>-0.3844675475160856</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1995880553651478</v>
+        <v>-0.1995880553651479</v>
       </c>
       <c r="F6" t="n">
-        <v>1.220738175491087e-09</v>
+        <v>1.220738175491096e-09</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9.765905403928698e-09</v>
+        <v>1.098664357941987e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2748191895728546</v>
+        <v>0.2748191895728544</v>
       </c>
     </row>
     <row r="7">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.111862922501839</v>
+        <v>0.1118629225018389</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04757180028330456</v>
+        <v>0.04757180028330453</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02884057834849396</v>
+        <v>0.02884057834849384</v>
       </c>
       <c r="E7" t="n">
-        <v>0.194885266655184</v>
+        <v>0.1948852666551839</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008383220480119214</v>
+        <v>0.008383220480119281</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.02235525461365124</v>
+        <v>0.01886224608026838</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2245614768246937</v>
+        <v>0.2245614768246936</v>
       </c>
     </row>
     <row r="8">
@@ -688,16 +688,16 @@
         <v>0.1064072500296553</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03978608281768854</v>
+        <v>0.03978608281768855</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02233028074859503</v>
+        <v>0.022330280748595</v>
       </c>
       <c r="E8" t="n">
         <v>0.1904842193107156</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01323684408942487</v>
+        <v>0.01323684408942491</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.02647368817884975</v>
+        <v>0.02382631936096483</v>
       </c>
       <c r="I8" t="n">
         <v>0.2231522041055732</v>
@@ -718,19 +718,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07105883540709416</v>
+        <v>0.07105883540709393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04368256283215702</v>
+        <v>0.04368256283215704</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02084807841498082</v>
+        <v>-0.02084807841498111</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1629657492291691</v>
+        <v>0.162965749229169</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1293489863194903</v>
+        <v>0.1293489863194918</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -738,10 +738,43 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.1478274129365603</v>
+        <v>0.1455176096094283</v>
       </c>
       <c r="I9" t="n">
         <v>0.2164628697485649</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ventricle_volume</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.210342162303018</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04482143834933171</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1198312129100058</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3008531116960301</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.400252724333891e-06</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[0.119831, 0.300853]</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1.920075817300167e-05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2475842121561094</v>
       </c>
     </row>
   </sheetData>
